--- a/data/Taiwan/Taiwan_1800_(CMM-June2011).xlsx
+++ b/data/Taiwan/Taiwan_1800_(CMM-June2011).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rombert\Documents\GitHub\labrel\data\Taiwan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="315" windowWidth="13395" windowHeight="12345"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Labour relations used" sheetId="2" r:id="rId2"/>
     <sheet name="Sources" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="156">
   <si>
     <t>NA</t>
   </si>
@@ -1707,9 +1712,6 @@
     <t>Taiwan</t>
   </si>
   <si>
-    <t>China (Qing Empire)</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -2559,7 +2561,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2594,7 +2596,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2805,9 +2807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN30" sqref="AN30"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3219,7 +3221,7 @@
         <v>127</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L4" s="44">
         <v>1036000</v>
@@ -3231,13 +3233,13 @@
         <v>-1</v>
       </c>
       <c r="O4" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P4" s="43" t="s">
         <v>1</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R4" s="43">
         <v>0</v>
@@ -3306,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AN4" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AS4" s="52" t="str">
         <f>IF(COUNTA('Labour relations used'!B4)=0,"",'Labour relations used'!B4)</f>
@@ -3350,7 +3352,7 @@
         <v>127</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L5" s="44">
         <v>36000</v>
@@ -3362,13 +3364,13 @@
         <v>-1</v>
       </c>
       <c r="O5" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R5" s="43">
         <v>0</v>
@@ -3398,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB5" s="26" t="s">
         <v>0</v>
@@ -3437,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="AN5" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP5" s="1"/>
       <c r="AS5" s="52" t="str">
@@ -3482,7 +3484,7 @@
         <v>127</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L6" s="44">
         <v>1000000</v>
@@ -3494,13 +3496,13 @@
         <v>-1</v>
       </c>
       <c r="O6" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R6" s="43">
         <v>0</v>
@@ -3530,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB6" s="26" t="s">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="AN6" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AP6" s="1"/>
       <c r="AS6" s="52" t="str">
@@ -3614,7 +3616,7 @@
         <v>127</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L7" s="44">
         <v>40000</v>
@@ -3626,13 +3628,13 @@
         <v>-1</v>
       </c>
       <c r="O7" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R7" s="43">
         <v>0</v>
@@ -3662,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB7" s="26" t="s">
         <v>0</v>
@@ -3701,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="AN7" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP7" s="1"/>
       <c r="AS7" s="52">
@@ -3746,7 +3748,7 @@
         <v>127</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L8" s="44">
         <v>960000</v>
@@ -3758,13 +3760,13 @@
         <v>-1</v>
       </c>
       <c r="O8" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R8" s="43">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB8" s="26" t="s">
         <v>0</v>
@@ -3833,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="AN8" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP8" s="1"/>
       <c r="AS8" s="52">
@@ -3878,7 +3880,7 @@
         <v>127</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L9" s="44">
         <v>430000</v>
@@ -3890,13 +3892,13 @@
         <v>-1</v>
       </c>
       <c r="O9" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="R9" s="43">
         <v>0</v>
@@ -3926,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB9" s="26" t="s">
         <v>0</v>
@@ -3965,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP9" s="1"/>
       <c r="AS9" s="52">
@@ -4010,7 +4012,7 @@
         <v>127</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" s="44">
         <v>530000</v>
@@ -4022,13 +4024,13 @@
         <v>-1</v>
       </c>
       <c r="O10" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="R10" s="43">
         <v>0</v>
@@ -4058,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB10" s="26" t="s">
         <v>0</v>
@@ -4097,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="AN10" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AS10" s="52">
@@ -4142,7 +4144,7 @@
         <v>127</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L11" s="44">
         <v>20000</v>
@@ -4154,13 +4156,13 @@
         <v>-1</v>
       </c>
       <c r="O11" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="R11" s="43">
         <v>0</v>
@@ -4190,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB11" s="26" t="s">
         <v>0</v>
@@ -4229,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP11" s="1"/>
       <c r="AS11" s="52">
@@ -4274,7 +4276,7 @@
         <v>127</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L12" s="44">
         <v>20000</v>
@@ -4286,13 +4288,13 @@
         <v>-1</v>
       </c>
       <c r="O12" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q12" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="R12" s="43">
         <v>0</v>
@@ -4322,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB12" s="26" t="s">
         <v>0</v>
@@ -4361,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="AN12" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP12" s="1"/>
       <c r="AS12" s="52" t="str">
@@ -4406,7 +4408,7 @@
         <v>127</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L13" s="44">
         <v>18000</v>
@@ -4418,13 +4420,13 @@
         <v>-1</v>
       </c>
       <c r="O13" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q13" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="R13" s="43">
         <v>0</v>
@@ -4454,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB13" s="26" t="s">
         <v>0</v>
@@ -4493,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP13" s="1"/>
       <c r="AS13" s="52" t="str">
@@ -4538,7 +4540,7 @@
         <v>127</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L14" s="44">
         <v>18000</v>
@@ -4550,13 +4552,13 @@
         <v>-1</v>
       </c>
       <c r="O14" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q14" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="R14" s="43">
         <v>0</v>
@@ -4586,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB14" s="26" t="s">
         <v>0</v>
@@ -4625,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AS14" s="52">
@@ -4670,7 +4672,7 @@
         <v>127</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L15" s="44">
         <v>259000</v>
@@ -4682,13 +4684,13 @@
         <v>-1</v>
       </c>
       <c r="O15" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R15" s="43">
         <v>0</v>
@@ -4757,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP15" s="1"/>
       <c r="AS15" s="52">
@@ -4802,7 +4804,7 @@
         <v>127</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L16" s="44">
         <v>363000</v>
@@ -4814,13 +4816,13 @@
         <v>-1</v>
       </c>
       <c r="O16" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R16" s="43">
         <v>0</v>
@@ -4889,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="AN16" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP16" s="1"/>
       <c r="AS16" s="52">
@@ -4934,7 +4936,7 @@
         <v>127</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L17" s="44">
         <v>73000</v>
@@ -4946,13 +4948,13 @@
         <v>-1</v>
       </c>
       <c r="O17" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R17" s="43">
         <v>61</v>
@@ -5021,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="AN17" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP17" s="1"/>
       <c r="AS17" s="52">
@@ -5066,7 +5068,7 @@
         <v>127</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L18" s="44">
         <v>601000</v>
@@ -5078,13 +5080,13 @@
         <v>-1</v>
       </c>
       <c r="O18" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R18" s="43">
         <v>16</v>
@@ -5153,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="AN18" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AS18" s="52">
@@ -5198,7 +5200,7 @@
         <v>127</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L19" s="44">
         <v>725200</v>
@@ -5210,13 +5212,13 @@
         <v>-1</v>
       </c>
       <c r="O19" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R19" s="43">
         <v>11</v>
@@ -5285,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="AN19" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP19" s="1"/>
       <c r="AS19" s="52">
@@ -5330,7 +5332,7 @@
         <v>127</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L20" s="44">
         <v>839000</v>
@@ -5342,13 +5344,13 @@
         <v>-1</v>
       </c>
       <c r="O20" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R20" s="43">
         <v>6</v>
@@ -5417,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="AN20" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AS20" s="52">
@@ -5462,7 +5464,7 @@
         <v>127</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L21" s="44">
         <v>164000</v>
@@ -5474,13 +5476,13 @@
         <v>-1</v>
       </c>
       <c r="O21" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R21" s="43">
         <v>6</v>
@@ -5489,10 +5491,10 @@
         <v>60</v>
       </c>
       <c r="T21" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U21" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V21" s="45">
         <v>6</v>
@@ -5510,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB21" s="26" t="s">
         <v>0</v>
@@ -5549,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="AN21" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP21" s="1"/>
       <c r="AS21" s="52">
@@ -5594,7 +5596,7 @@
         <v>127</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L22" s="44">
         <v>491000</v>
@@ -5606,13 +5608,13 @@
         <v>-1</v>
       </c>
       <c r="O22" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R22" s="43">
         <v>6</v>
@@ -5621,10 +5623,10 @@
         <v>60</v>
       </c>
       <c r="T22" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U22" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V22" s="45">
         <v>6</v>
@@ -5642,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB22" s="26" t="s">
         <v>0</v>
@@ -5681,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="AN22" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP22" s="1"/>
       <c r="AS22" s="52">
@@ -5726,7 +5728,7 @@
         <v>127</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L23" s="44">
         <v>74000</v>
@@ -5738,13 +5740,13 @@
         <v>-1</v>
       </c>
       <c r="O23" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R23" s="43">
         <v>6</v>
@@ -5753,10 +5755,10 @@
         <v>60</v>
       </c>
       <c r="T23" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U23" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V23" s="45">
         <v>6</v>
@@ -5774,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB23" s="26" t="s">
         <v>0</v>
@@ -5813,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="AN23" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP23" s="1"/>
       <c r="AS23" s="52">
@@ -5858,7 +5860,7 @@
         <v>127</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L24" s="44">
         <v>12000</v>
@@ -5870,13 +5872,13 @@
         <v>-1</v>
       </c>
       <c r="O24" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R24" s="43">
         <v>6</v>
@@ -5885,10 +5887,10 @@
         <v>60</v>
       </c>
       <c r="T24" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U24" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V24" s="45" t="s">
         <v>0</v>
@@ -5906,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB24" s="26" t="s">
         <v>0</v>
@@ -5945,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="AN24" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP24" s="1"/>
       <c r="AS24" s="52">
@@ -5990,7 +5992,7 @@
         <v>127</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L25" s="44">
         <v>45000</v>
@@ -6002,13 +6004,13 @@
         <v>-1</v>
       </c>
       <c r="O25" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R25" s="43">
         <v>6</v>
@@ -6017,14 +6019,14 @@
         <v>60</v>
       </c>
       <c r="T25" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="U25" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="V25" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="U25" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="V25" s="60" t="s">
-        <v>153</v>
-      </c>
       <c r="W25" s="26" t="s">
         <v>0</v>
       </c>
@@ -6038,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB25" s="26" t="s">
         <v>0</v>
@@ -6077,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP25" s="1"/>
       <c r="AS25" s="52">
@@ -6122,7 +6124,7 @@
         <v>127</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L26" s="44">
         <v>12000</v>
@@ -6134,13 +6136,13 @@
         <v>-1</v>
       </c>
       <c r="O26" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R26" s="43">
         <v>6</v>
@@ -6149,10 +6151,10 @@
         <v>60</v>
       </c>
       <c r="T26" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U26" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V26" s="45" t="s">
         <v>0</v>
@@ -6170,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB26" s="26" t="s">
         <v>0</v>
@@ -6209,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="AN26" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP26" s="1"/>
       <c r="AS26" s="52">
@@ -6254,7 +6256,7 @@
         <v>127</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L27" s="44">
         <v>8000</v>
@@ -6266,13 +6268,13 @@
         <v>-1</v>
       </c>
       <c r="O27" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R27" s="43">
         <v>6</v>
@@ -6281,10 +6283,10 @@
         <v>60</v>
       </c>
       <c r="T27" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U27" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V27" s="60" t="s">
         <v>0</v>
@@ -6302,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB27" s="26" t="s">
         <v>0</v>
@@ -6341,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP27" s="1"/>
       <c r="AS27" s="52">
@@ -6386,7 +6388,7 @@
         <v>127</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L28" s="44">
         <v>4000</v>
@@ -6398,13 +6400,13 @@
         <v>-1</v>
       </c>
       <c r="O28" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R28" s="43">
         <v>6</v>
@@ -6413,10 +6415,10 @@
         <v>60</v>
       </c>
       <c r="T28" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U28" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V28" s="45" t="s">
         <v>0</v>
@@ -6434,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB28" s="26" t="s">
         <v>0</v>
@@ -6473,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="AN28" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP28" s="1"/>
       <c r="AS28" s="52">
@@ -6518,7 +6520,7 @@
         <v>127</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L29" s="44">
         <v>190000</v>
@@ -6530,13 +6532,13 @@
         <v>-1</v>
       </c>
       <c r="O29" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R29" s="43">
         <v>0</v>
@@ -6545,7 +6547,7 @@
         <v>99</v>
       </c>
       <c r="T29" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U29" s="26" t="s">
         <v>0</v>
@@ -6566,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB29" s="26" t="s">
         <v>0</v>
@@ -6605,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="AN29" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AP29" s="1"/>
       <c r="AS29" s="52"/>
@@ -6641,7 +6643,7 @@
         <v>127</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L30" s="44">
         <v>7000</v>
@@ -6653,13 +6655,13 @@
         <v>-1</v>
       </c>
       <c r="O30" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R30" s="43">
         <v>0</v>
@@ -6668,7 +6670,7 @@
         <v>99</v>
       </c>
       <c r="T30" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U30" s="26" t="s">
         <v>0</v>
@@ -6689,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB30" s="26" t="s">
         <v>0</v>
@@ -6728,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AP30" s="1"/>
       <c r="AS30" s="52"/>
@@ -6764,7 +6766,7 @@
         <v>127</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L31" s="44">
         <v>16000</v>
@@ -6776,13 +6778,13 @@
         <v>-1</v>
       </c>
       <c r="O31" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R31" s="43">
         <v>6</v>
@@ -6791,10 +6793,10 @@
         <v>60</v>
       </c>
       <c r="T31" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U31" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V31" s="45">
         <v>6</v>
@@ -6812,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB31" s="26" t="s">
         <v>0</v>
@@ -6851,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS31" s="52">
         <f>IF(COUNTA('Labour relations used'!B29)=0,"",'Labour relations used'!B29)</f>
@@ -6895,7 +6897,7 @@
         <v>127</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L32" s="44">
         <v>5000</v>
@@ -6907,13 +6909,13 @@
         <v>-1</v>
       </c>
       <c r="O32" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P32" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R32" s="43">
         <v>6</v>
@@ -6922,10 +6924,10 @@
         <v>60</v>
       </c>
       <c r="T32" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U32" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V32" s="45">
         <v>6</v>
@@ -6943,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB32" s="26" t="s">
         <v>0</v>
@@ -6982,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="AN32" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS32" s="52">
         <f>IF(COUNTA('Labour relations used'!B30)=0,"",'Labour relations used'!B30)</f>
@@ -7026,7 +7028,7 @@
         <v>127</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L33" s="44">
         <v>1000</v>
@@ -7038,13 +7040,13 @@
         <v>-1</v>
       </c>
       <c r="O33" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R33" s="43">
         <v>6</v>
@@ -7053,10 +7055,10 @@
         <v>60</v>
       </c>
       <c r="T33" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U33" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V33" s="45" t="s">
         <v>0</v>
@@ -7074,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB33" s="26" t="s">
         <v>0</v>
@@ -7113,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="AN33" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS33" s="52">
         <f>IF(COUNTA('Labour relations used'!B31)=0,"",'Labour relations used'!B31)</f>
@@ -7157,7 +7159,7 @@
         <v>127</v>
       </c>
       <c r="K34" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L34" s="44">
         <v>7000</v>
@@ -7169,13 +7171,13 @@
         <v>-1</v>
       </c>
       <c r="O34" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q34" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="R34" s="43">
         <v>6</v>
@@ -7184,10 +7186,10 @@
         <v>60</v>
       </c>
       <c r="T34" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U34" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V34" s="45" t="s">
         <v>0</v>
@@ -7205,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB34" s="26" t="s">
         <v>0</v>
@@ -7244,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="AN34" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS34" s="52">
         <f>IF(COUNTA('Labour relations used'!B32)=0,"",'Labour relations used'!B32)</f>
@@ -7975,7 +7977,7 @@
         <v>13</v>
       </c>
       <c r="Q21" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.15">
@@ -7986,7 +7988,7 @@
         <v>113</v>
       </c>
       <c r="Q22" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.15">
